--- a/DOM_Banner/output/dept_banner/Govinda Adhikari_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Govinda Adhikari_2023.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2622692123", "https://openalex.org/W4386331995", "https://openalex.org/W4311455847", "https://openalex.org/W3195985848", "https://openalex.org/W2075551792", "https://openalex.org/W3111459424", "https://openalex.org/W2978549136", "https://openalex.org/W2020878961", "https://openalex.org/W2398500455", "https://openalex.org/W2471553666")</t>
+          <t>c("https://openalex.org/W2182858914", "https://openalex.org/W2441047597", "https://openalex.org/W2426251809", "https://openalex.org/W1970031848", "https://openalex.org/W4226078079", "https://openalex.org/W3215718398", "https://openalex.org/W4220849147", "https://openalex.org/W4251972795", "https://openalex.org/W1579960876", "https://openalex.org/W1998555000")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Govinda Adhikari_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Govinda Adhikari_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Hong Kong Metropolitan University; City University of Hong Kong; McLaren Flint; University of Hong Kong; Cardiovascular Analytics Group; University of Oxford; Chinese University of Hong Kong; Second Hospital of Tianjin Medical University; University of Hong Kong; Chinese University of Hong Kong; Cardiovascular Analytics Group; Chinese University of Hong Kong; University of Hong Kong</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384568116</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>199 Alkaline phosphatase variability and heart failure in type 2 diabetes mellitus: the hong kong diabetes study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/heartjnl-2023-bcs.199</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/heartjnl-2023-bcs.199</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Radiology and Imaging, Tribhuvan University Teaching Hospital, Maharajgunj, Kathmandu, Nepal; Department of Radiology and Imaging, Tribhuvan University Teaching Hospital, Maharajgunj, Kathmandu, Nepal; Department of Radiology and Imaging, Tribhuvan University Teaching Hospital, Maharajgunj, Kathmandu, Nepal; Department of Radiology and Imaging, Tribhuvan University Teaching Hospital, Maharajgunj, Kathmandu, Nepal; Grande International Hospital, Kathmandu, Nepal; Grande International Hospital, Kathmandu, Nepal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313519540</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Abnormal Anatomic Variation of Pancreaticobiliary Union in Magnetic Resonance Cholangiopancreatography Department of Radiology and Imaging in a Tertiary Care Centre: A Descriptive Cross-sectional Study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Nepal Medical Association</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Nepal Medical Association</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.31729/jnma.7944</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37203918</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.31729/jnma.7944</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Economics, Nepal Commerce Campus, Tribhuvan University, Kathmandu, Nepal; Public Health and Social Protection Professional, Kathmandu, Nepal; Department of Population Studies, Padma Kanya Multiple Campus, Tribhuvan University, Kathmandu, Nepal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318264116</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Occupational and geographical differentials in financial protection against healthcare out-of-pocket payments in Nepal: Evidence for universal health coverage</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0280840</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36706091</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0280840</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Internal Medicine, Division of Cardiology, Washington University in St. Louis, Saint Louis, MO, USA; Department of Neurological Sciences, Rush Alzheimer's Disease Center, Rush University-Rush Medical College, Chicago, IL, USA; Department of Cardiovascular Sciences, University of Tennessee College of Medicine, Nashville, TN, USA; Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Internal Medicine, McLaren Flint/Michigan State University College of Human Medicine, Flint, MI, USA; Department of Microbiology, Manipal College of Medical Sciences, Pokhara, Nepal; Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319071968</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sex-based disparities and in-hospital outcomes of patients hospitalized with atrial fibrillation with and without dementia</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>American Heart Journal Plus: Cardiology Research And Practice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ahjo.2023.100266</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ahjo.2023.100266</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, Sophia J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, Robert J. Neal, J. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
+          <t>Alvaro J Altamirano, Roshanak Habibi, Kamaldeep Singh, Govinda Adhikari</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382140563</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Search for solar bosonic dark matter annual modulation with COSINE-100</t>
+          <t>https://openalex.org/W4384913529</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>Intrapericardial Paraganglioma, an Exceedingly Rare Finding: A Case Report</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Physical review</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>American Physical Society</t>
+          <t>Case Reports in Clinical Medicine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.107.122004</t>
+          <t>Scientific Research Publishing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.4236/crcm.2023.127035</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevd.107.122004</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4236/crcm.2023.127035</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alvaro J Altamirano, Roshanak Habibi, Kamaldeep Singh, Govinda Adhikari</t>
+          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, S. L. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, Sejin Ra, C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384913529</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Intrapericardial Paraganglioma, an Exceedingly Rare Finding: A Case Report</t>
+          <t>https://openalex.org/W4384919501</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Search for inelastic WIMP-iodine scattering with COSINE-100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Case Reports in Clinical Medicine</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Scientific Research Publishing</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4236/crcm.2023.127035</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://arxiv.org/abs/2307.09814</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4236/crcm.2023.127035</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevd.108.092006</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, S. L. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, Sejin Ra, C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
+          <t>Ongden Yonjen Tamang, Raju Paudel, Prakash Kayastha, Santosh Maharjan, Govinda Adhikari, Rudra Prasad Upadhyaya, Kapil Dawadi, Prajina Pradhan, Tanveer Rehman, Saurav Krishna Malla</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384919501</t>
+          <t>Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.; Department of Community Medicine and Family Medicine, All India Institute of Medical Sciences, Kalyani, West Bengal, India.; Department of Radiology and Interventions, Grande International Hospital, Dhapasi, Kathmandu, Nepal.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Search for inelastic WIMP-iodine scattering with COSINE-100</t>
+          <t>https://openalex.org/W4385231243</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>Computed Tomography Chest Findings in COVID-19 Patients.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>PubMed</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2307.09814</t>
+          <t>National Institutes of Health</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37489665</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.108.092006</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37489665</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.33314/jnhrc.v20i4.3855</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ongden Yonjen Tamang, Raju Paudel, Prakash Kayastha, Santosh Maharjan, Govinda Adhikari, Rudra Prasad Upadhyaya, Kapil Dawadi, Prajina Pradhan, Tanveer Rehman, Saurav Krishna Malla</t>
+          <t>Govinda Adhikari, Pramod R Regmi, Pallavi Sharma, Basant Lamichhane, Prakash Kayastha, Santosh Maharjan, Isha Amatya</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385231243</t>
+          <t>Grande International Hospital, Dhapasi, Tokha, Kathmandu.; Maharajgunj Medical Campus, Tribhuvan University Teaching Hospital (TUTH), Maharajgunj, Kathmandu, Nepal.; Maharajgunj Medical Campus, Tribhuvan University Teaching Hospital (TUTH), Maharajgunj, Kathmandu, Nepal.; Gandaki Medical College, Lekhnath, Kaski, Nepal.; Maharajgunj Medical Campus, Tribhuvan University Teaching Hospital (TUTH), Maharajgunj, Kathmandu, Nepal.; Grande International Hospital, Dhapasi, Tokha, Kathmandu.; Nepal Health Research Council, Ramshah Path, Kathmandu, Nepal.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Computed Tomography Chest Findings in COVID-19 Patients.</t>
+          <t>https://openalex.org/W4387393062</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>Comparison of the Mean Cross-sectional Area of the Median Nerve between Pregnant and Non-Pregnant Women Using Ultrasonography in a Tertiary Level Hospital, Nepal.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>PubMed</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>National Institutes of Health</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37489665</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37800429</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37489665</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.33314/jnhrc.v20i4.3855</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37800429</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
+          <t>Thuma Kumari Paudel, Govinda Adhikari</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386161509</t>
+          <t>Mahendra Ratna Campus, Tahachal, Tribhuvan University, Nepal; Padma Kanya Multiple Campus, Bagbazar, Tribhuvan University, Nepal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Search for bosonic super-weakly interacting massive particles at COSINE-100</t>
+          <t>https://openalex.org/W4388293776</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>Married Women’s Knowledge, Attitude, and Practice Regarding Uterine Prolapse in Morang District of Nepal</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Physical review</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>American Physical Society</t>
+          <t>Pragyaratna प्रज्ञारत्न</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.108.l041301</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.3126/pragyaratna.v5i1.59280</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevd.108.l041301</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3126/pragyaratna.v5i1.59280</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Govinda Adhikari, Pramod R Regmi, Pallavi Sharma, Basant Lamichhane, Prakash Kayastha, Santosh Maharjan, Isha Amatya</t>
+          <t>G. Adhikari, N. Carlin, Jin Yeon Cho, Jungyu Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, S. W. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, Robert J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, Jong Chul Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, Myungwoo Son, N. J. C. Spooner, Le Thi Thanh Truc, L. Yang, G. H. Yu</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387393062</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Comparison of the Mean Cross-sectional Area of the Median Nerve between Pregnant and Non-Pregnant Women Using Ultrasonography in a Tertiary Level Hospital, Nepal.</t>
+          <t>https://openalex.org/W4388734497</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>Search for inelastic WIMP-iodine scattering with COSINE-100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PubMed</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>National Institutes of Health</t>
+          <t>Physical review</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37800429</t>
+          <t>American Physical Society</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1103/physrevd.108.092006</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37800429</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevd.108.092006</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thuma Kumari Paudel, Govinda Adhikari</t>
+          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, Sophia J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, Robert J. Neal, J. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388293776</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Married Women’s Knowledge, Attitude, and Practice Regarding Uterine Prolapse in Morang District of Nepal</t>
+          <t>https://openalex.org/W4382140563</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>Search for solar bosonic dark matter annual modulation with COSINE-100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pragyaratna प्रज्ञारत्न</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Physical review</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3126/pragyaratna.v5i1.59280</t>
+          <t>American Physical Society</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1103/physrevd.107.122004</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3126/pragyaratna.v5i1.59280</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevd.107.122004</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G. Adhikari, N. Carlin, D. F. F. S. Cavalcante, Jin Yeon Cho, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. Fran, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, S. W. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. H. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, Jong Chul Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, Sejin Ra, C. Rott, A. Scarff, K. A. Shin, Myungwoo Son, N. J. C. Spooner, W. G. Thompson, Le Thi Thanh Truc, L. Yang, G. H. Yu, for COSINE-100</t>
+          <t>G. Adhikari, N. Carlin, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, N. J. C. Spooner, W. G. Thompson, L. Yang, G. H. Yu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388584699</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alpha backgrounds in NaI(Tl) crystals of COSINE-100</t>
+          <t>https://openalex.org/W4386161509</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>Search for bosonic super-weakly interacting massive particles at COSINE-100</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>Physical review</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2311.05010</t>
+          <t>American Physical Society</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1103/physrevd.108.l041301</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2311.05010</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevd.108.l041301</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G. Adhikari, N. Carlin, Jin Yeon Cho, Jungyu Choi, S. Choi, A. C. Ezeribe, L. E. França, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, S. W. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. Maruyama, Robert J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, Jong Chul Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, S. J., C. Rott, K. A. Shin, D. F. F. S. Cavalcante, A. Scarff, Myungwoo Son, N. J. C. Spooner, Le Thi Thanh Truc, L. Yang, G. H. Yu</t>
+          <t>G. Adhikari, N. Carlin, D. F. F. S. Cavalcante, Jin Yeon Cho, J. J. Choi, S. Choi, A. C. Ezeribe, L. E. Fran, C. Ha, I. S. Hahn, S. J. Hollick, E. J. Jeon, J. H. Jo, H. W. Joo, W. G. Kang, M. Kauer, B. H. Kim, H. J. Kim, J. Kim, K. W. Kim, S. H. Kim, S. K. Kim, S. W. Kim, W. K. Kim, Y. D. Kim, Y. H. Kim, Y. J. Ko, D. H. Lee, E. K. Lee, H. Lee, H. S. Lee, H. Y. Lee, I. S. Lee, J. Lee, J. Y. Lee, M. H. Lee, S. H. Lee, S. M. Lee, Y. J. Lee, D. S. Leonard, N. T. Luan, B. B. Manzato, R. H. Maruyama, R. J. Neal, J. A. Nikkel, S. L. Olsen, B. J. Park, H. K. Park, H. S. Park, Jong Chul Park, K. S. Park, S. D. Park, R. L. C. Pitta, H. Prihtiadi, Sejin Ra, C. Rott, A. Scarff, K. A. Shin, Myungwoo Son, N. J. C. Spooner, W. G. Thompson, Le Thi Thanh Truc, L. Yang, G. H. Yu, for COSINE-100</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388734497</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Search for inelastic WIMP-iodine scattering with COSINE-100</t>
+          <t>https://openalex.org/W4388584699</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>Alpha backgrounds in NaI(Tl) crystals of COSINE-100</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Physical review</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>American Physical Society</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.108.092006</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://arxiv.org/abs/2311.05010</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevd.108.092006</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2311.05010</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
